--- a/carousell_listings.xlsx
+++ b/carousell_listings.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
       <selection activeCell="A184" sqref="A183:XFD184"/>
@@ -13692,6 +13692,1014 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1277213322</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1277213322</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>modalivingconcept</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>7 minutes ago</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Built In Wardrobe</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>S$299</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/5/13/built_in_wardrobe_1715598578_872ba8f4_progressive_thumbnail</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>1135580764</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1135580764</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>swfurniture</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>8 minutes ago</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Wardrobe /L shape wardrobe L200*R160*240H</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>S$3,299</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/wardrobe_l_shape_wardrobe_l200_1719804957_26e099d2_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1311732484</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311732484</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>iigugu</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>31 minutes ago</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Free delivery 2 door wardrobe</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>S$110</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/free_delivery_2_door_wardrobe_1719803578_7dcf5214_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1012227924</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1012227924</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>wenwen73</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>40 minutes ago</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Refresh old kitchen and wardrobe</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>S$80</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2021/4/12/wardrobe_1618236336_5c2d9ede_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1311729828</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311729828</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>38homefactor1</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>47 minutes ago</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>⚡ ⚡ Wardrobe/ Home Bedroom Cabinet/Storage Cabinet</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>S$259</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/wardrobe_home_bedroom_cabinets_1719802648_3f125884_progressive_thumbnail</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1311463183</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311463183</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>qh888</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>IKEA wardrobe</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>S$50</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/6/29/ikea_wardrobe_1719664257_9011a2d5_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1311476207</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311476207</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>csk81</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Ikea wardrobe</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>S$150</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/6/29/ikea_wardrobe_1719668788_dd0c2d1d_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>1311732328</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311732328</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>yanina.v.s</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>32 minutes ago</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>IKEA Portable Wardrobe</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>S$20</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Well used</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/ikea_portable_wardrobe_1719803526_be3ff671_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1311745427</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311745427</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>ravikumar2310</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>22 minutes ago</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Wardrobe</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>S$40</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/wardrobe_1719807838_441447c7_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1309568917</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1309568917</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>yourfavgiftshop</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>52 minutes ago</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Sturdy Chest of Drawers with Extendable Rack | Storage Organising Wardrobe | Drawer Cabinet with Hanging Rack | Durable Multilayered Drawer Storage Rack | Bedroom Storage Wardrobe | Home Organisation Living Room Furniture</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>S$56</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/6/19/sturdy_chest_of_drawers_with_e_1718768136_aceb398b_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1311740621</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311740621</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>furnigenetics</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>48 minutes ago</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>PROMO Left 1 each - 4 I 5 Feet Whitewash Board + Mirror Sliding Wardrobe</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>S$299</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/promo_left_1_each__4_i_5_feet__1719806243_f3c346ff_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1311750340</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311750340</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>elise.2929</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>56 minutes ago</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>IKEA Wardrobe 3 door for sale</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>S$50</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/ikea_wardrobe_3_door_for_sale_1719811195_ba7eafd2_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1311751229</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311751229</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>cls23</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>51 minutes ago</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Kids Toddler Wardrobe Cupboard</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>S$40</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/kids_toddler_wardrobe_cupboard_1719809748_82a55cbb_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1311600049</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311600049</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>chewkingkong7</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>51 minutes ago</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>New wall to wall vuilt in wardrobes</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>S$180</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/6/30/new_wall_to_wall_vuilt_in_ward_1719735136_9ca3b672_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1311748150</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311748150</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>michelle_chui</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>1 hour ago</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Sliding Wardrobe</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>S$99.90</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/sliding_wardrobe_1719808750_bce3a431_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1311752207</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311752207</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>wellwoods</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>46 minutes ago</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>❤️ CLOSING DOWN LAST DAY 1/7/2024❤️ Display Set 2 Door Wardrobe $158/ 3 Door Wardrobe $228/ 2+3 Door $348 (Take note 3 door defect refer 3rd pic)</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>S$158</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/closing_down_last_day_172024_d_1719810049_3af49970_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1311772307</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311772307</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ericang90</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>6 minutes ago</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Wardrobe</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>S$55</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/wardrobe_1719816183_7052e98c_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1311765255</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311765255</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>iigugu</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>40 minutes ago</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Free delivery sliding wardrobe</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>S$140</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Well used</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/free_delivery_sliding_wardrobe_1719814101_0292fff2_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1311762648</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311762648</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>lbu007</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>54 minutes ago</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Free delivery 10 door Wardrobe/cupboard</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>S$250</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/free_delivery_10_door_wardrobe_1719813301_d4860d7e_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1311773785</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311773785</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>ericang90</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>1 hour ago</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Wardrobe</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>S$40</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Well used</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/wardrobe_1719816604_206f5381_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1311782858</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311782858</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>iigugu</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>16 minutes ago</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Free delivery 3 door wardrobe</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>S$160</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/free_delivery_3_door_wardrobe_1719819235_67cf4317_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1311782695</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311782695</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>furnituresalestore</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>17 minutes ago</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>PROMO Left 2 each - 4 I 5 Feet Sliding Mirror Wardrobe</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>S$299</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/promo_left_2_each__4_i_5_feet__1719819191_fa658752_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1311788350</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311788350</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>qas88</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2 hours ago</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Apple Pencil Gen 1</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>S$50</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/apple_pencil_gen_1_1719820787_d3d1caea_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1311783916</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1311783916</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>muhammadh47456</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2 hours ago</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Apple Pencil Gen 1</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>S$50</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/1/apple_pencil_gen_1_1719819527_30961271_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/carousell_listings.xlsx
+++ b/carousell_listings.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H340"/>
+  <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
       <selection activeCell="A184" sqref="A183:XFD184"/>
@@ -14700,6 +14700,216 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1313409423</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1313409423</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>little_stiches</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Apple Pencil Gen 1 (Free case)</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>S$80</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/9/apple_pencil_gen_1_free_case_1720547160_018d4006_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1313128588</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1313128588</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>zaw_m_h</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Apple Pencil Gen 1</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>S$110</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Lightly used</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/8/apple_pencil_gen_1_1720430285_84c0e654_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1312992098</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1312992098</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>heartaimer</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Apple Pencil Gen 1</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>S$75</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/7/apple_pencil_gen_1_1720362436_2b2d690f_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1312916504</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1312916504</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>auzra35</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Apple Pencil Gen 1</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>S$90</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/7/apple_pencil_gen_1_1720340083_9423c6b1_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1312513290</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://www.carousell.sg/p/1312513290</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>yljc199702018</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Apple Pencil Gen 1</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>S$100</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>https://media.karousell.com/media/photos/products/2024/7/5/apple_pencil_gen_1_1720157937_2fe922b0_progressive_thumbnail.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
